--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto.xlsx
@@ -983,7 +983,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.7041230460815973</v>
+        <v>0.7041230460815974</v>
       </c>
       <c r="C37">
         <v>0.8014173281782413</v>
